--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Spon2-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Spon2-Itga5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Itga5</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.166127333333333</v>
+        <v>0.54332</v>
       </c>
       <c r="H2">
-        <v>3.498381999999999</v>
+        <v>1.62996</v>
       </c>
       <c r="I2">
-        <v>0.1795592107679211</v>
+        <v>0.09277509850694737</v>
       </c>
       <c r="J2">
-        <v>0.1849469123397136</v>
+        <v>0.09480543614915297</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.211442</v>
+        <v>28.85518433333334</v>
       </c>
       <c r="N2">
-        <v>99.634326</v>
+        <v>86.56555300000001</v>
       </c>
       <c r="O2">
-        <v>0.211580186305583</v>
+        <v>0.1999651185353207</v>
       </c>
       <c r="P2">
-        <v>0.2175281749633597</v>
+        <v>0.2044513327926365</v>
       </c>
       <c r="Q2">
-        <v>38.72877029561466</v>
+        <v>15.67759875198667</v>
       </c>
       <c r="R2">
-        <v>348.5589326605319</v>
+        <v>141.09838876788</v>
       </c>
       <c r="S2">
-        <v>0.03799117126716019</v>
+        <v>0.01855178357006778</v>
       </c>
       <c r="T2">
-        <v>0.04023116430636637</v>
+        <v>0.01938309777668153</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.166127333333333</v>
+        <v>0.54332</v>
       </c>
       <c r="H3">
-        <v>3.498381999999999</v>
+        <v>1.62996</v>
       </c>
       <c r="I3">
-        <v>0.1795592107679211</v>
+        <v>0.09277509850694737</v>
       </c>
       <c r="J3">
-        <v>0.1849469123397136</v>
+        <v>0.09480543614915297</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>153.522748</v>
       </c>
       <c r="O3">
-        <v>0.326015871517865</v>
+        <v>0.3546352265743414</v>
       </c>
       <c r="P3">
-        <v>0.3351809012869699</v>
+        <v>0.3625914622481308</v>
       </c>
       <c r="Q3">
-        <v>59.67569091041511</v>
+        <v>27.80399314778667</v>
       </c>
       <c r="R3">
-        <v>537.081218193736</v>
+        <v>250.23593833008</v>
       </c>
       <c r="S3">
-        <v>0.05853915258756381</v>
+        <v>0.03290131807946813</v>
       </c>
       <c r="T3">
-        <v>0.06199067276826744</v>
+        <v>0.03437564172239318</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.166127333333333</v>
+        <v>0.54332</v>
       </c>
       <c r="H4">
-        <v>3.498381999999999</v>
+        <v>1.62996</v>
       </c>
       <c r="I4">
-        <v>0.1795592107679211</v>
+        <v>0.09277509850694737</v>
       </c>
       <c r="J4">
-        <v>0.1849469123397136</v>
+        <v>0.09480543614915297</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.19450366666666</v>
+        <v>29.393479</v>
       </c>
       <c r="N4">
-        <v>66.58351099999999</v>
+        <v>88.180437</v>
       </c>
       <c r="O4">
-        <v>0.1413945597650736</v>
+        <v>0.2036954761578358</v>
       </c>
       <c r="P4">
-        <v>0.1453694746776606</v>
+        <v>0.2082653809291453</v>
       </c>
       <c r="Q4">
-        <v>25.88161737546688</v>
+        <v>15.97006501028</v>
       </c>
       <c r="R4">
-        <v>232.9345563792019</v>
+        <v>143.73058509252</v>
       </c>
       <c r="S4">
-        <v>0.02538869555829428</v>
+        <v>0.01889786786596277</v>
       </c>
       <c r="T4">
-        <v>0.02688563549007952</v>
+        <v>0.0197446902737571</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.166127333333333</v>
+        <v>0.54332</v>
       </c>
       <c r="H5">
-        <v>3.498381999999999</v>
+        <v>1.62996</v>
       </c>
       <c r="I5">
-        <v>0.1795592107679211</v>
+        <v>0.09277509850694737</v>
       </c>
       <c r="J5">
-        <v>0.1849469123397136</v>
+        <v>0.09480543614915297</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.8762265</v>
+        <v>9.499066500000001</v>
       </c>
       <c r="N5">
-        <v>25.752453</v>
+        <v>18.998133</v>
       </c>
       <c r="O5">
-        <v>0.08203059661736112</v>
+        <v>0.0658280999596015</v>
       </c>
       <c r="P5">
-        <v>0.05622443917490541</v>
+        <v>0.04486996822421697</v>
       </c>
       <c r="Q5">
-        <v>15.015319671841</v>
+        <v>5.161032810780001</v>
       </c>
       <c r="R5">
-        <v>90.09191803104599</v>
+        <v>30.96619686468001</v>
       </c>
       <c r="S5">
-        <v>0.01472934918743506</v>
+        <v>0.006107208458277207</v>
       </c>
       <c r="T5">
-        <v>0.01039853642343079</v>
+        <v>0.004253916907495525</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.166127333333333</v>
+        <v>0.54332</v>
       </c>
       <c r="H6">
-        <v>3.498381999999999</v>
+        <v>1.62996</v>
       </c>
       <c r="I6">
-        <v>0.1795592107679211</v>
+        <v>0.09277509850694737</v>
       </c>
       <c r="J6">
-        <v>0.1849469123397136</v>
+        <v>0.09480543614915297</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>37.51216133333333</v>
+        <v>25.37910966666666</v>
       </c>
       <c r="N6">
-        <v>112.536484</v>
+        <v>76.13732899999999</v>
       </c>
       <c r="O6">
-        <v>0.2389787857941174</v>
+        <v>0.1758760787729007</v>
       </c>
       <c r="P6">
-        <v>0.2456970098971044</v>
+        <v>0.1798218558058706</v>
       </c>
       <c r="Q6">
-        <v>43.74395666320977</v>
+        <v>13.78897786409333</v>
       </c>
       <c r="R6">
-        <v>393.6956099688879</v>
+        <v>124.10080077684</v>
       </c>
       <c r="S6">
-        <v>0.04291084216746779</v>
+        <v>0.0163169205331715</v>
       </c>
       <c r="T6">
-        <v>0.04544090335156952</v>
+        <v>0.01704808946882566</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>13.850705</v>
       </c>
       <c r="I7">
-        <v>0.7109062584872947</v>
+        <v>0.7883632241071366</v>
       </c>
       <c r="J7">
-        <v>0.7322371094632415</v>
+        <v>0.805616167573593</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>33.211442</v>
+        <v>28.85518433333334</v>
       </c>
       <c r="N7">
-        <v>99.634326</v>
+        <v>86.56555300000001</v>
       </c>
       <c r="O7">
-        <v>0.211580186305583</v>
+        <v>0.1999651185353207</v>
       </c>
       <c r="P7">
-        <v>0.2175281749633597</v>
+        <v>0.2044513327926365</v>
       </c>
       <c r="Q7">
-        <v>153.3339619222033</v>
+        <v>133.2215486405406</v>
       </c>
       <c r="R7">
-        <v>1380.00565729983</v>
+        <v>1198.993937764865</v>
       </c>
       <c r="S7">
-        <v>0.1504136786165468</v>
+        <v>0.1576451455574711</v>
       </c>
       <c r="T7">
-        <v>0.1592822020619847</v>
+        <v>0.1647092991797171</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>13.850705</v>
       </c>
       <c r="I8">
-        <v>0.7109062584872947</v>
+        <v>0.7883632241071366</v>
       </c>
       <c r="J8">
-        <v>0.7322371094632415</v>
+        <v>0.805616167573593</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>153.522748</v>
       </c>
       <c r="O8">
-        <v>0.326015871517865</v>
+        <v>0.3546352265743414</v>
       </c>
       <c r="P8">
-        <v>0.3351809012869699</v>
+        <v>0.3625914622481308</v>
       </c>
       <c r="Q8">
         <v>236.2664770374822</v>
@@ -948,10 +948,10 @@
         <v>2126.39829333734</v>
       </c>
       <c r="S8">
-        <v>0.23176672342824</v>
+        <v>0.2795813706041127</v>
       </c>
       <c r="T8">
-        <v>0.2454318943056549</v>
+        <v>0.2921095442112443</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>13.850705</v>
       </c>
       <c r="I9">
-        <v>0.7109062584872947</v>
+        <v>0.7883632241071366</v>
       </c>
       <c r="J9">
-        <v>0.7322371094632415</v>
+        <v>0.805616167573593</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>22.19450366666666</v>
+        <v>29.393479</v>
       </c>
       <c r="N9">
-        <v>66.58351099999999</v>
+        <v>88.180437</v>
       </c>
       <c r="O9">
-        <v>0.1413945597650736</v>
+        <v>0.2036954761578358</v>
       </c>
       <c r="P9">
-        <v>0.1453694746776606</v>
+        <v>0.2082653809291453</v>
       </c>
       <c r="Q9">
-        <v>102.4698409694727</v>
+        <v>135.7068021842317</v>
       </c>
       <c r="R9">
-        <v>922.2285687252548</v>
+        <v>1221.361219658085</v>
       </c>
       <c r="S9">
-        <v>0.1005182774530467</v>
+        <v>0.1605860223198298</v>
       </c>
       <c r="T9">
-        <v>0.1064449239421601</v>
+        <v>0.1677819580223925</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>13.850705</v>
       </c>
       <c r="I10">
-        <v>0.7109062584872947</v>
+        <v>0.7883632241071366</v>
       </c>
       <c r="J10">
-        <v>0.7322371094632415</v>
+        <v>0.805616167573593</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.8762265</v>
+        <v>9.499066500000001</v>
       </c>
       <c r="N10">
-        <v>25.752453</v>
+        <v>18.998133</v>
       </c>
       <c r="O10">
-        <v>0.08203059661736112</v>
+        <v>0.0658280999596015</v>
       </c>
       <c r="P10">
-        <v>0.05622443917490541</v>
+        <v>0.04486996822421697</v>
       </c>
       <c r="Q10">
-        <v>59.4482715882275</v>
+        <v>43.8562559556275</v>
       </c>
       <c r="R10">
-        <v>356.689629529365</v>
+        <v>263.137535733765</v>
       </c>
       <c r="S10">
-        <v>0.05831606452272873</v>
+        <v>0.0518964531209983</v>
       </c>
       <c r="T10">
-        <v>0.04116962082262458</v>
+        <v>0.03614797183994257</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>13.850705</v>
       </c>
       <c r="I11">
-        <v>0.7109062584872947</v>
+        <v>0.7883632241071366</v>
       </c>
       <c r="J11">
-        <v>0.7322371094632415</v>
+        <v>0.805616167573593</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>37.51216133333333</v>
+        <v>25.37910966666666</v>
       </c>
       <c r="N11">
-        <v>112.536484</v>
+        <v>76.13732899999999</v>
       </c>
       <c r="O11">
-        <v>0.2389787857941174</v>
+        <v>0.1758760787729007</v>
       </c>
       <c r="P11">
-        <v>0.2456970098971044</v>
+        <v>0.1798218558058706</v>
       </c>
       <c r="Q11">
-        <v>173.1899601801355</v>
+        <v>117.1728537185494</v>
       </c>
       <c r="R11">
-        <v>1558.70964162122</v>
+        <v>1054.555683466945</v>
       </c>
       <c r="S11">
-        <v>0.1698915144667326</v>
+        <v>0.1386542325047247</v>
       </c>
       <c r="T11">
-        <v>0.1799084683308171</v>
+        <v>0.1448673943202967</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.5675655000000001</v>
+        <v>0.073119</v>
       </c>
       <c r="H12">
-        <v>1.135131</v>
+        <v>0.219357</v>
       </c>
       <c r="I12">
-        <v>0.08739321198122495</v>
+        <v>0.01248550104492653</v>
       </c>
       <c r="J12">
-        <v>0.0600103057788119</v>
+        <v>0.01275874012697842</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.211442</v>
+        <v>28.85518433333334</v>
       </c>
       <c r="N12">
-        <v>99.634326</v>
+        <v>86.56555300000001</v>
       </c>
       <c r="O12">
-        <v>0.211580186305583</v>
+        <v>0.1999651185353207</v>
       </c>
       <c r="P12">
-        <v>0.2175281749633597</v>
+        <v>0.2044513327926365</v>
       </c>
       <c r="Q12">
-        <v>18.849668684451</v>
+        <v>2.109862223269</v>
       </c>
       <c r="R12">
-        <v>113.098012106706</v>
+        <v>18.988760009421</v>
       </c>
       <c r="S12">
-        <v>0.01849067207283088</v>
+        <v>0.002496664696421604</v>
       </c>
       <c r="T12">
-        <v>0.01305393229505811</v>
+        <v>0.00260854142371563</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.5675655000000001</v>
+        <v>0.073119</v>
       </c>
       <c r="H13">
-        <v>1.135131</v>
+        <v>0.219357</v>
       </c>
       <c r="I13">
-        <v>0.08739321198122495</v>
+        <v>0.01248550104492653</v>
       </c>
       <c r="J13">
-        <v>0.0600103057788119</v>
+        <v>0.01275874012697842</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>153.522748</v>
       </c>
       <c r="O13">
-        <v>0.326015871517865</v>
+        <v>0.3546352265743414</v>
       </c>
       <c r="P13">
-        <v>0.3351809012869699</v>
+        <v>0.3625914622481308</v>
       </c>
       <c r="Q13">
-        <v>29.04473840999801</v>
+        <v>3.741809937004001</v>
       </c>
       <c r="R13">
-        <v>174.2684304599881</v>
+        <v>33.676289433036</v>
       </c>
       <c r="S13">
-        <v>0.02849157416880457</v>
+        <v>0.004427798491961698</v>
       </c>
       <c r="T13">
-        <v>0.02011430837744883</v>
+        <v>0.004626210239085007</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.5675655000000001</v>
+        <v>0.073119</v>
       </c>
       <c r="H14">
-        <v>1.135131</v>
+        <v>0.219357</v>
       </c>
       <c r="I14">
-        <v>0.08739321198122495</v>
+        <v>0.01248550104492653</v>
       </c>
       <c r="J14">
-        <v>0.0600103057788119</v>
+        <v>0.01275874012697842</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>22.19450366666666</v>
+        <v>29.393479</v>
       </c>
       <c r="N14">
-        <v>66.58351099999999</v>
+        <v>88.180437</v>
       </c>
       <c r="O14">
-        <v>0.1413945597650736</v>
+        <v>0.2036954761578358</v>
       </c>
       <c r="P14">
-        <v>0.1453694746776606</v>
+        <v>0.2082653809291453</v>
       </c>
       <c r="Q14">
-        <v>12.5968345708235</v>
+        <v>2.149221791001</v>
       </c>
       <c r="R14">
-        <v>75.58100742494099</v>
+        <v>19.342996119009</v>
       </c>
       <c r="S14">
-        <v>0.01235692473454106</v>
+        <v>0.002543240080415467</v>
       </c>
       <c r="T14">
-        <v>0.008723666626311665</v>
+        <v>0.002657203872721132</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.5675655000000001</v>
+        <v>0.073119</v>
       </c>
       <c r="H15">
-        <v>1.135131</v>
+        <v>0.219357</v>
       </c>
       <c r="I15">
-        <v>0.08739321198122495</v>
+        <v>0.01248550104492653</v>
       </c>
       <c r="J15">
-        <v>0.0600103057788119</v>
+        <v>0.01275874012697842</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>12.8762265</v>
+        <v>9.499066500000001</v>
       </c>
       <c r="N15">
-        <v>25.752453</v>
+        <v>18.998133</v>
       </c>
       <c r="O15">
-        <v>0.08203059661736112</v>
+        <v>0.0658280999596015</v>
       </c>
       <c r="P15">
-        <v>0.05622443917490541</v>
+        <v>0.04486996822421697</v>
       </c>
       <c r="Q15">
-        <v>7.308101931585751</v>
+        <v>0.6945622434135001</v>
       </c>
       <c r="R15">
-        <v>29.23240772634301</v>
+        <v>4.167373460481</v>
       </c>
       <c r="S15">
-        <v>0.007168917319127394</v>
+        <v>0.0008218968108311328</v>
       </c>
       <c r="T15">
-        <v>0.003374045787128284</v>
+        <v>0.0005724842640785637</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.5675655000000001</v>
+        <v>0.073119</v>
       </c>
       <c r="H16">
-        <v>1.135131</v>
+        <v>0.219357</v>
       </c>
       <c r="I16">
-        <v>0.08739321198122495</v>
+        <v>0.01248550104492653</v>
       </c>
       <c r="J16">
-        <v>0.0600103057788119</v>
+        <v>0.01275874012697842</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>37.51216133333333</v>
+        <v>25.37910966666666</v>
       </c>
       <c r="N16">
-        <v>112.536484</v>
+        <v>76.13732899999999</v>
       </c>
       <c r="O16">
-        <v>0.2389787857941174</v>
+        <v>0.1758760787729007</v>
       </c>
       <c r="P16">
-        <v>0.2456970098971044</v>
+        <v>0.1798218558058706</v>
       </c>
       <c r="Q16">
-        <v>21.290608603234</v>
+        <v>1.855695119717</v>
       </c>
       <c r="R16">
-        <v>127.743651619404</v>
+        <v>16.701256077453</v>
       </c>
       <c r="S16">
-        <v>0.02088512368592105</v>
+        <v>0.002195900965296632</v>
       </c>
       <c r="T16">
-        <v>0.01474435269286501</v>
+        <v>0.002294300327378089</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,10 +1455,10 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1467,19 +1467,19 @@
         <v>2</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1437943333333333</v>
+        <v>0.3762535</v>
       </c>
       <c r="H17">
-        <v>0.431383</v>
+        <v>0.752507</v>
       </c>
       <c r="I17">
-        <v>0.02214131876355931</v>
+        <v>0.0642475070420447</v>
       </c>
       <c r="J17">
-        <v>0.02280567241823297</v>
+        <v>0.0437690215344491</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>33.211442</v>
+        <v>28.85518433333334</v>
       </c>
       <c r="N17">
-        <v>99.634326</v>
+        <v>86.56555300000001</v>
       </c>
       <c r="O17">
-        <v>0.211580186305583</v>
+        <v>0.1999651185353207</v>
       </c>
       <c r="P17">
-        <v>0.2175281749633597</v>
+        <v>0.2044513327926365</v>
       </c>
       <c r="Q17">
-        <v>4.775617161428666</v>
+        <v>10.85686409856184</v>
       </c>
       <c r="R17">
-        <v>42.98055445285799</v>
+        <v>65.14118459137102</v>
       </c>
       <c r="S17">
-        <v>0.004684664349045178</v>
+        <v>0.01284726036126132</v>
       </c>
       <c r="T17">
-        <v>0.004960876299950448</v>
+        <v>0.008948634787747727</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,10 +1517,10 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1529,19 +1529,19 @@
         <v>2</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.1437943333333333</v>
+        <v>0.3762535</v>
       </c>
       <c r="H18">
-        <v>0.431383</v>
+        <v>0.752507</v>
       </c>
       <c r="I18">
-        <v>0.02214131876355931</v>
+        <v>0.0642475070420447</v>
       </c>
       <c r="J18">
-        <v>0.02280567241823297</v>
+        <v>0.0437690215344491</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>153.522748</v>
       </c>
       <c r="O18">
-        <v>0.326015871517865</v>
+        <v>0.3546352265743414</v>
       </c>
       <c r="P18">
-        <v>0.3351809012869699</v>
+        <v>0.3625914622481308</v>
       </c>
       <c r="Q18">
-        <v>7.358567066720446</v>
+        <v>19.25449042153933</v>
       </c>
       <c r="R18">
-        <v>66.22710360048401</v>
+        <v>115.526942529236</v>
       </c>
       <c r="S18">
-        <v>0.007218421333256644</v>
+        <v>0.02278442921669212</v>
       </c>
       <c r="T18">
-        <v>0.007644025835598718</v>
+        <v>0.01587027351934583</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.1437943333333333</v>
+        <v>0.3762535</v>
       </c>
       <c r="H19">
-        <v>0.431383</v>
+        <v>0.752507</v>
       </c>
       <c r="I19">
-        <v>0.02214131876355931</v>
+        <v>0.0642475070420447</v>
       </c>
       <c r="J19">
-        <v>0.02280567241823297</v>
+        <v>0.0437690215344491</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>22.19450366666666</v>
+        <v>29.393479</v>
       </c>
       <c r="N19">
-        <v>66.58351099999999</v>
+        <v>88.180437</v>
       </c>
       <c r="O19">
-        <v>0.1413945597650736</v>
+        <v>0.2036954761578358</v>
       </c>
       <c r="P19">
-        <v>0.1453694746776606</v>
+        <v>0.2082653809291453</v>
       </c>
       <c r="Q19">
-        <v>3.191443858412555</v>
+        <v>11.0593993509265</v>
       </c>
       <c r="R19">
-        <v>28.72299472571299</v>
+        <v>66.356396105559</v>
       </c>
       <c r="S19">
-        <v>0.003130662019191633</v>
+        <v>0.01308692653888321</v>
       </c>
       <c r="T19">
-        <v>0.00331524861910934</v>
+        <v>0.009115571942768004</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>2</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.1437943333333333</v>
+        <v>0.3762535</v>
       </c>
       <c r="H20">
-        <v>0.431383</v>
+        <v>0.752507</v>
       </c>
       <c r="I20">
-        <v>0.02214131876355931</v>
+        <v>0.0642475070420447</v>
       </c>
       <c r="J20">
-        <v>0.02280567241823297</v>
+        <v>0.0437690215344491</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>12.8762265</v>
+        <v>9.499066500000001</v>
       </c>
       <c r="N20">
-        <v>25.752453</v>
+        <v>18.998133</v>
       </c>
       <c r="O20">
-        <v>0.08203059661736112</v>
+        <v>0.0658280999596015</v>
       </c>
       <c r="P20">
-        <v>0.05622443917490541</v>
+        <v>0.04486996822421697</v>
       </c>
       <c r="Q20">
-        <v>1.8515284054165</v>
+        <v>3.574057017357751</v>
       </c>
       <c r="R20">
-        <v>11.109170432499</v>
+        <v>14.296228069431</v>
       </c>
       <c r="S20">
-        <v>0.001816265588069942</v>
+        <v>0.004229291315718919</v>
       </c>
       <c r="T20">
-        <v>0.001282236141721758</v>
+        <v>0.001963914605455799</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,31 +1703,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
       </c>
       <c r="E21">
         <v>2</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.1437943333333333</v>
+        <v>0.3762535</v>
       </c>
       <c r="H21">
-        <v>0.431383</v>
+        <v>0.752507</v>
       </c>
       <c r="I21">
-        <v>0.02214131876355931</v>
+        <v>0.0642475070420447</v>
       </c>
       <c r="J21">
-        <v>0.02280567241823297</v>
+        <v>0.0437690215344491</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,338 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>37.51216133333333</v>
+        <v>25.37910966666666</v>
       </c>
       <c r="N21">
-        <v>112.536484</v>
+        <v>76.13732899999999</v>
       </c>
       <c r="O21">
-        <v>0.2389787857941174</v>
+        <v>0.1758760787729007</v>
       </c>
       <c r="P21">
-        <v>0.2456970098971044</v>
+        <v>0.1798218558058706</v>
       </c>
       <c r="Q21">
-        <v>5.39403623081911</v>
+        <v>9.548978838967166</v>
       </c>
       <c r="R21">
-        <v>48.54632607737199</v>
+        <v>57.293873033803</v>
       </c>
       <c r="S21">
-        <v>0.005291305473995911</v>
+        <v>0.01129959960948914</v>
       </c>
       <c r="T21">
-        <v>0.005603285521852707</v>
+        <v>0.007870626679131753</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.2467186666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.740156</v>
+      </c>
+      <c r="I22">
+        <v>0.04212866929894484</v>
+      </c>
+      <c r="J22">
+        <v>0.04305063461582644</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>28.85518433333334</v>
+      </c>
+      <c r="N22">
+        <v>86.56555300000001</v>
+      </c>
+      <c r="O22">
+        <v>0.1999651185353207</v>
+      </c>
+      <c r="P22">
+        <v>0.2044513327926365</v>
+      </c>
+      <c r="Q22">
+        <v>7.11911260514089</v>
+      </c>
+      <c r="R22">
+        <v>64.07201344626802</v>
+      </c>
+      <c r="S22">
+        <v>0.008424264350098831</v>
+      </c>
+      <c r="T22">
+        <v>0.008801759624774528</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.2467186666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.740156</v>
+      </c>
+      <c r="I23">
+        <v>0.04212866929894484</v>
+      </c>
+      <c r="J23">
+        <v>0.04305063461582644</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>51.17424933333334</v>
+      </c>
+      <c r="N23">
+        <v>153.522748</v>
+      </c>
+      <c r="O23">
+        <v>0.3546352265743414</v>
+      </c>
+      <c r="P23">
+        <v>0.3625914622481308</v>
+      </c>
+      <c r="Q23">
+        <v>12.62564256318756</v>
+      </c>
+      <c r="R23">
+        <v>113.630783068688</v>
+      </c>
+      <c r="S23">
+        <v>0.01494031018210681</v>
+      </c>
+      <c r="T23">
+        <v>0.01560979255606251</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.2467186666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.740156</v>
+      </c>
+      <c r="I24">
+        <v>0.04212866929894484</v>
+      </c>
+      <c r="J24">
+        <v>0.04305063461582644</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>29.393479</v>
+      </c>
+      <c r="N24">
+        <v>88.180437</v>
+      </c>
+      <c r="O24">
+        <v>0.2036954761578358</v>
+      </c>
+      <c r="P24">
+        <v>0.2082653809291453</v>
+      </c>
+      <c r="Q24">
+        <v>7.251919947574667</v>
+      </c>
+      <c r="R24">
+        <v>65.267279528172</v>
+      </c>
+      <c r="S24">
+        <v>0.00858141935274457</v>
+      </c>
+      <c r="T24">
+        <v>0.008965956817506541</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.2467186666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.740156</v>
+      </c>
+      <c r="I25">
+        <v>0.04212866929894484</v>
+      </c>
+      <c r="J25">
+        <v>0.04305063461582644</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>9.499066500000001</v>
+      </c>
+      <c r="N25">
+        <v>18.998133</v>
+      </c>
+      <c r="O25">
+        <v>0.0658280999596015</v>
+      </c>
+      <c r="P25">
+        <v>0.04486996822421697</v>
+      </c>
+      <c r="Q25">
+        <v>2.343597021458</v>
+      </c>
+      <c r="R25">
+        <v>14.061582128748</v>
+      </c>
+      <c r="S25">
+        <v>0.002773250253775936</v>
+      </c>
+      <c r="T25">
+        <v>0.001931680607244508</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.2467186666666667</v>
+      </c>
+      <c r="H26">
+        <v>0.740156</v>
+      </c>
+      <c r="I26">
+        <v>0.04212866929894484</v>
+      </c>
+      <c r="J26">
+        <v>0.04305063461582644</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>25.37910966666666</v>
+      </c>
+      <c r="N26">
+        <v>76.13732899999999</v>
+      </c>
+      <c r="O26">
+        <v>0.1758760787729007</v>
+      </c>
+      <c r="P26">
+        <v>0.1798218558058706</v>
+      </c>
+      <c r="Q26">
+        <v>6.261500098147111</v>
+      </c>
+      <c r="R26">
+        <v>56.353500883324</v>
+      </c>
+      <c r="S26">
+        <v>0.007409425160218704</v>
+      </c>
+      <c r="T26">
+        <v>0.007741445010238365</v>
       </c>
     </row>
   </sheetData>
